--- a/static/doc/depositDomainEdit.xlsx
+++ b/static/doc/depositDomainEdit.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wdouadou/Documents/新网/域名/行者/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C205CE-05D2-7E4A-8132-47EEF211D6CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{5D203738-92DD-A044-A893-5A9017954F2C}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="21840" windowHeight="13710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>注册商</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -68,19 +62,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>管理公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组</t>
+    <t>新网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩梅梅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanmeimei@xinnnet.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-01-21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-01-21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>testdomain.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,6 +110,12 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,8 +140,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -188,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -240,7 +262,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -434,55 +456,72 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4013D72D-8165-B14D-B27D-FE29C0933B73}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="2" max="3" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="1"/>
+    <col min="2" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>